--- a/data/trans_dic/P25A_11_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_11_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos depresivos</t>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +667,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,15</t>
+          <t>0,0; 23,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,99</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 15,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,49</t>
+          <t>0,0; 8,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 11,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,62</t>
+          <t>0,0; 13,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 13,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,51</t>
+          <t>1,39; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,42</t>
+          <t>1,45; 13,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,63</t>
+          <t>0,0; 6,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 8,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 8,12</t>
         </is>
       </c>
     </row>
@@ -852,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,37 +947,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,1</t>
+          <t>1,96; 11,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,56</t>
+          <t>0,95; 8,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,93</t>
+          <t>2,91; 13,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,89</t>
+          <t>1,11; 11,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,1</t>
+          <t>1,2; 6,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 5,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 7,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 6,81</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,81</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,9</t>
+          <t>1,22; 10,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,27</t>
+          <t>1,3; 12,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,42</t>
+          <t>1,3; 11,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,4</t>
+          <t>4,1; 15,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,56</t>
+          <t>4,09; 15,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,57</t>
+          <t>4,95; 16,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,86</t>
+          <t>8,33; 22,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,63</t>
+          <t>3,21; 10,31</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 10,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 11,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 14,92</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,63</t>
+          <t>2,39; 15,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,53</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,45</t>
+          <t>1,42; 12,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,56</t>
+          <t>1,39; 13,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,65</t>
+          <t>1,54; 13,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,88</t>
+          <t>1,97; 19,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,91</t>
+          <t>4,14; 23,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,23</t>
+          <t>5,06; 23,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,06</t>
+          <t>2,79; 11,7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 9,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 14,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 14,42</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 13,42</t>
+          <t>0,0; 15,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 20,35</t>
+          <t>0,0; 11,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 12,89</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 22,06</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,66</t>
+          <t>1,58; 17,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,97</t>
+          <t>2,47; 23,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,47</t>
+          <t>0,0; 9,51</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 12,13</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 15,2</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>3,91%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,7</t>
+          <t>1,69; 5,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,53</t>
+          <t>1,01; 4,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,96</t>
+          <t>1,55; 5,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,93</t>
+          <t>1,62; 5,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,37</t>
+          <t>2,6; 6,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,89</t>
+          <t>3,48; 7,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,61</t>
+          <t>4,08; 8,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,88</t>
+          <t>5,87; 12,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,61</t>
+          <t>2,53; 5,29</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,47</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 6,45</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6952</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6193</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33952</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15821</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18826</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21920</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19326</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16417</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12012</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2891; 33269</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8376</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9976</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12155</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22591</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19422</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2145; 23276</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22532</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15492</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2354; 21704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20073</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2339; 23826</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2348; 23288</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3146; 31684</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12994</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7783</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13847</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10690</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12994</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7783</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13847</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10690</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5166; 29148</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1993; 18729</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5838; 26510</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2642; 27336</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5129; 28525</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2008; 18894</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5780; 26074</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3637; 28444</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7825</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9732</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19614</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16672</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15707</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31044</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24142</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22892</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23532</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40776</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13774</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1964; 16843</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2033; 19358</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2617; 23993</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8961; 34733</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7604; 29235</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8543; 29135</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17724; 48613</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13014; 41744</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11636; 37404</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13165; 37962</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24713; 61777</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11210</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6763</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6202</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10591</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16678</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17413</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10308</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17354</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25270</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3765; 24262</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11206</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1746; 15304</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2113; 19959</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1749; 15613</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1810; 17490</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3758; 21227</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6936; 32532</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7568; 31732</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4703; 21235</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8912; 30079</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13469; 41692</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7282</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18416</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6702</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6354</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>21740</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13657</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12544</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15291</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13294</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18362</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1745; 19167</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5117; 48621</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 23470</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19601</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2672; 24344</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6125; 51959</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>28788</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18092</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>25359</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31313</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>44943</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>44531</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50327</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>92156</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>73732</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62623</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75686</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>123468</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15038; 49640</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7708; 34842</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12235; 43224</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16853; 58958</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>26819; 66383</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29171; 66309</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>33556; 71025</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>64689; 133582</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48601; 101800</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>43946; 87592</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>54645; 103950</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>91660; 167596</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>